--- a/experiments/BS/BS50Tx50Rx/5tx_oneBS/trx_rate.xlsx
+++ b/experiments/BS/BS50Tx50Rx/5tx_oneBS/trx_rate.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Mps tx</t>
   </si>
@@ -42,13 +41,19 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>Aloha</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
     <t>Tcomp</t>
+  </si>
+  <si>
+    <t>Aloha 16</t>
+  </si>
+  <si>
+    <t>Aloha 8</t>
+  </si>
+  <si>
+    <t>G8</t>
   </si>
 </sst>
 </file>
@@ -284,20 +289,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transmitted</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> messages [msg/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -360,6 +412,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TRx [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -626,20 +734,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transmitted messages [msg/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -702,6 +852,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Received messages [msg/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -740,6 +946,1246 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1438338752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput vs number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>3.1381384964711448E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5518552481967317E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8688398230239427E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0939373185987184E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2317783871816166E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.286788113071244E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10263194537637575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1116503684555574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11996173225317656</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12760288416604734</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13460900956628993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1410137013709199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14684902682969753</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15214559163907454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15693260148598595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16123792112130089</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16508813105895545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16850858199314508</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17152344702244129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17415577176631813</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.17642752245631918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17835963208096492</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17997204466048411</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18128375772455105</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18231286306341776</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18307658582014028</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18359132198901093</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.18387267438281771</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18393548712915392</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1837938787536943</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1834612739061329</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.18295043378234163</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18227348529424978</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18144194903696811</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.18046676610077372</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17935832377374092</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17812648017903826</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.17678058788921475</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.17532951655816584</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.17378167460989699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.17214503002169185</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.17042713023783551</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.16863512124864558</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.16677576586821513</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.16485546124297648</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.16288025562194874</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.16085586441833175</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.15878768559095555</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.15668081437298553</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.15454005737421395</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.15236994608224311</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.15017474978687659</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.14795848795108454</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14572494205099598</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.14347766690649022</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.14122000152311553</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1389550794652489</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.13668583877962878</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13441503148764061</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.13214523266401129</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.12987884911887296</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.1276181276994881</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.12536516322728369</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.12312190608522393</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.12089016946995691</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.11867163632259735</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.11646786595145865</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.1142803003595185</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.11211027028889403</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.10995900099411311</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.10782761775550047</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.10571715114354308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6645-4666-B596-610491107B17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aloha 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>1.6226207808786655E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3934305567230453E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1381384964711448E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8573998400166939E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5518552481967317E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2221311065535028E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8688398230239427E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4925801196747429E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0939373185987184E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6734836220860317E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2317783871816166E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7693683947380821E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.286788113071244E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7845599563234145E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10263194537637575</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10723190917243605</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1116503684555574</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11589209001378666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11996173225317656</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12386384748486459</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12760288416604734</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1311831890957523</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13460900956628993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13788449547125409</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1410137013709199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14400058851587444</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14684902682969753</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14956279685149543</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15214559163907454</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15460101863352704</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15693260148598595</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.159143781847292</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16123792112130089</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16321830218254585</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16508813105895545</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.16685053858031504</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.16850858199314508</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.17006524654265778</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.17152344702244129</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.17288602929250596</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.17415577176631813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.17533538686743178</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.17642752245631918</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1774347632279884</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.17835963208096492</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.17920459145820325</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.17997204466048411</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.18066433713284111</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.18128375772455105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.18183253992321122</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.18231286306341776</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.18272685351054782</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.18307658582014028</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.18336408387335851</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.18359132198901093</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.1837602260125944</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.18387267438281771</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.18393049917605298</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.18393548712915392</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.1838893806410723</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.1837938787536943</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.18365063811231155</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.1834612739061329</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.18322736078923485</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.18295043378234163</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.18263198915581802</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.18227348529424978</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.18187634354298096</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.18144194903696811</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.18097165151230626</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.18046676610077372</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.17992857410773566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6645-4666-B596-610491107B17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1703554672"/>
+        <c:axId val="1722480240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1703554672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1722480240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1722480240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1703554672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -868,6 +2314,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1385,6 +2871,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1912,7 +3914,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1934,16 +3936,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476808</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1957,6 +3959,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2228,10 +4260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,7 +4271,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2250,10 +4282,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -2268,7 +4300,7 @@
         <v>1.2439774603977014</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -2283,7 +4315,7 @@
         <v>1.6739229282622006</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -2298,7 +4330,7 @@
         <v>11.2006306638566</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
@@ -2313,7 +4345,7 @@
         <v>32.048144593253895</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>300</v>
       </c>
@@ -2328,7 +4360,7 @@
         <v>44.232109303295005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2336,166 +4368,1848 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>B9*$A$10</f>
         <v>16.78</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <f>B9*$A$9</f>
-        <v>33.56</v>
       </c>
       <c r="D9">
         <f>F9*EXP(-2*F9)</f>
+        <v>1.6226207808786655E-2</v>
+      </c>
+      <c r="E9">
+        <f>G9*EXP(-2*G9)</f>
+        <v>8.2503904003301577E-3</v>
+      </c>
+      <c r="F9">
+        <f>$A$10*B9*0.001</f>
+        <v>1.678E-2</v>
+      </c>
+      <c r="G9">
+        <f>$A$11*B9*0.001</f>
+        <v>8.3899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16.78</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>B10*$A$10</f>
+        <v>33.56</v>
+      </c>
+      <c r="D10">
+        <f>F10*EXP(-2*F10)</f>
         <v>3.1381384964711448E-2</v>
       </c>
-      <c r="F9">
-        <f>$A$9*B9*0.001</f>
+      <c r="E10">
+        <f>G10*EXP(-2*G10)</f>
+        <v>1.6226207808786655E-2</v>
+      </c>
+      <c r="F10">
+        <f>$A$10*B10*0.001</f>
         <v>3.356E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="G10">
+        <f>$A$11*B10*0.001</f>
+        <v>1.678E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10/2</f>
+        <v>8.39</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C10">
-        <f>B10*$A$9</f>
+      <c r="C11">
+        <f>B11*$A$10</f>
         <v>50.34</v>
       </c>
-      <c r="D10">
-        <f t="shared" ref="D10:D17" si="1">F10*EXP(-2*F10)</f>
+      <c r="D11">
+        <f t="shared" ref="D11:D74" si="1">F11*EXP(-2*F11)</f>
         <v>4.5518552481967317E-2</v>
       </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F17" si="2">$A$9*B10*0.001</f>
+      <c r="E11">
+        <f t="shared" ref="E11:E74" si="2">G11*EXP(-2*G11)</f>
+        <v>2.3934305567230453E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F74" si="3">$A$10*B11*0.001</f>
         <v>5.0340000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="G11">
+        <f t="shared" ref="G11:G74" si="4">$A$11*B11*0.001</f>
+        <v>2.5170000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C11">
-        <f>B11*$A$9</f>
+      <c r="C12">
+        <f>B12*$A$10</f>
         <v>67.12</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>5.8688398230239427E-2</v>
       </c>
-      <c r="F11">
+      <c r="E12">
         <f t="shared" si="2"/>
+        <v>3.1381384964711448E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
         <v>6.7119999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>3.356E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:C17" si="3">B12*$A$9</f>
+      <c r="C13">
+        <f t="shared" ref="C13:C76" si="5">B13*$A$10</f>
         <v>83.9</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>7.0939373185987184E-2</v>
       </c>
-      <c r="F12">
+      <c r="E13">
         <f t="shared" si="2"/>
+        <v>3.8573998400166939E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
         <v>8.3900000000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>4.1950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="3"/>
+      <c r="C14">
+        <f t="shared" si="5"/>
         <v>100.68</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f t="shared" si="1"/>
         <v>8.2317783871816166E-2</v>
       </c>
-      <c r="F13">
+      <c r="E14">
         <f t="shared" si="2"/>
+        <v>4.5518552481967317E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
         <v>0.10068000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>5.0340000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
+      <c r="C15">
+        <f t="shared" si="5"/>
         <v>117.46000000000001</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>9.286788113071244E-2</v>
       </c>
-      <c r="F14">
+      <c r="E15">
         <f t="shared" si="2"/>
+        <v>5.2221311065535028E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
         <v>0.11746000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>5.8730000000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>8</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
+      <c r="C16">
+        <f t="shared" si="5"/>
         <v>134.24</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f t="shared" si="1"/>
         <v>0.10263194537637575</v>
       </c>
-      <c r="F15">
+      <c r="E16">
         <f t="shared" si="2"/>
+        <v>5.8688398230239427E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
         <v>0.13424</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>6.7119999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="3"/>
+      <c r="C17">
+        <f t="shared" si="5"/>
         <v>151.02000000000001</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f t="shared" si="1"/>
         <v>0.1116503684555574</v>
       </c>
-      <c r="F16">
+      <c r="E17">
         <f t="shared" si="2"/>
+        <v>6.4925801196747429E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
         <v>0.15102000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>7.5510000000000008E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
+      <c r="C18">
+        <f t="shared" si="5"/>
         <v>167.8</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f t="shared" si="1"/>
         <v>0.11996173225317656</v>
       </c>
-      <c r="F17">
+      <c r="E18">
         <f t="shared" si="2"/>
+        <v>7.0939373185987184E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
         <v>0.1678</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>8.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="5"/>
+        <v>184.58</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.12760288416604734</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>7.6734836220860317E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0.18458000000000002</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>9.2290000000000011E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="5"/>
+        <v>201.36</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.13460900956628993</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>8.2317783871816166E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0.20136000000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>0.10068000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>218.14000000000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.1410137013709199</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>8.7693683947380821E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0.21814000000000003</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>0.10907000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="5"/>
+        <v>234.92000000000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.14684902682969753</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>9.286788113071244E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0.23492000000000002</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>0.11746000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="5"/>
+        <v>251.70000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.15214559163907454</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>9.7845599563234145E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0.25170000000000003</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>0.12585000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>268.48</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.15693260148598595</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>0.10263194537637575</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.26848</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>0.13424</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>285.26</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.16123792112130089</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>0.10723190917243605</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0.28526000000000001</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>0.14263000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>302.04000000000002</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.16508813105895545</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0.1116503684555574</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.30204000000000003</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>0.15102000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>318.82000000000005</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.16850858199314508</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>0.11589209001378666</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.31882000000000005</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>0.15941000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="5"/>
+        <v>335.6</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.17152344702244129</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0.11996173225317656</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>0.1678</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="5"/>
+        <v>352.38</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.17415577176631813</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.12386384748486459</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.35238000000000003</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0.17619000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>369.16</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.17642752245631918</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0.12760288416604734</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.36916000000000004</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0.18458000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="5"/>
+        <v>385.94000000000005</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.17835963208096492</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0.1311831890957523</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.38594000000000006</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>0.19297000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="5"/>
+        <v>402.72</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.17997204466048411</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>0.13460900956628993</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.40272000000000002</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0.20136000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="5"/>
+        <v>419.5</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.18128375772455105</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0.13788449547125409</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.41949999999999998</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>0.20974999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
+        <v>436.28000000000003</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.18231286306341776</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>0.1410137013709199</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.43628000000000006</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>0.21814000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="5"/>
+        <v>453.06000000000006</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.18307658582014028</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>0.14400058851587444</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.45306000000000007</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>0.22653000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>469.84000000000003</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.18359132198901093</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>0.14684902682969753</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.46984000000000004</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>0.23492000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>486.62</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.18387267438281771</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>0.14956279685149543</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.48662</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>0.24331</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>503.40000000000003</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.18393548712915392</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>0.15214559163907454</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.50340000000000007</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>0.25170000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>520.18000000000006</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.1837938787536943</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0.15460101863352704</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.52018000000000009</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>0.26009000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>536.96</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0.1834612739061329</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>0.15693260148598595</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.53695999999999999</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>0.26848</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>553.74</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0.18295043378234163</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>0.159143781847292</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.55374000000000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>0.27687</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>570.52</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0.18227348529424978</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>0.16123792112130089</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>0.57052000000000003</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>0.28526000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>587.30000000000007</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0.18144194903696811</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>0.16321830218254585</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>0.29365000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>604.08000000000004</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>0.18046676610077372</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>0.16508813105895545</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>0.60408000000000006</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>0.30204000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>620.86</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0.17935832377374092</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>0.16685053858031504</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>0.62086000000000008</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>0.31043000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>637.6400000000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>0.17812648017903826</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>0.16850858199314508</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>0.6376400000000001</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>0.31882000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>654.42000000000007</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>0.17678058788921475</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>0.17006524654265778</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>0.65442000000000011</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>0.32721000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>671.2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>0.17532951655816584</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>0.17152344702244129</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>0.33560000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>41</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>687.98</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>0.17378167460989699</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>0.17288602929250596</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>0.68798000000000004</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>0.34399000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>42</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>704.76</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>0.17214503002169185</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>0.17415577176631813</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>0.70476000000000005</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>0.35238000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>721.54000000000008</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0.17042713023783551</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>0.17533538686743178</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>0.72154000000000007</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>0.36077000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>44</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>738.32</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0.16863512124864558</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>0.17642752245631918</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>0.73832000000000009</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>0.36916000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>755.1</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0.16677576586821513</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>0.1774347632279884</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>0.37755</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>46</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="5"/>
+        <v>771.88000000000011</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>0.16485546124297648</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>0.17835963208096492</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>0.77188000000000012</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>0.38594000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>47</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="5"/>
+        <v>788.66000000000008</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>0.16288025562194874</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>0.17920459145820325</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>0.78866000000000014</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>0.39433000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>48</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="5"/>
+        <v>805.44</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>0.16085586441833175</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>0.17997204466048411</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>0.80544000000000004</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>0.40272000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>49</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="5"/>
+        <v>822.22</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>0.15878768559095555</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>0.18066433713284111</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>0.82222000000000006</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>0.41111000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="5"/>
+        <v>839</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>0.15668081437298553</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>0.18128375772455105</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>0.41949999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>51</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="5"/>
+        <v>855.78000000000009</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>0.15454005737421395</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>0.18183253992321122</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>0.8557800000000001</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>0.42789000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>52</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="5"/>
+        <v>872.56000000000006</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>0.15236994608224311</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>0.18231286306341776</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>0.87256000000000011</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>0.43628000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>53</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="5"/>
+        <v>889.34</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0.15017474978687659</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>0.18272685351054782</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>0.88934000000000002</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>0.44467000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>54</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="5"/>
+        <v>906.12000000000012</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>0.14795848795108454</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>0.18307658582014028</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>0.90612000000000015</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>0.45306000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>55</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="5"/>
+        <v>922.90000000000009</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>0.14572494205099598</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>0.18336408387335851</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>0.92290000000000016</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>0.46145000000000008</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>56</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="5"/>
+        <v>939.68000000000006</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>0.14347766690649022</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>0.18359132198901093</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>0.93968000000000007</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>0.46984000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>57</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="5"/>
+        <v>956.46</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>0.14122000152311553</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>0.1837602260125944</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="3"/>
+        <v>0.95646000000000009</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>0.47823000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>58</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="5"/>
+        <v>973.24</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>0.1389550794652489</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>0.18387267438281771</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="3"/>
+        <v>0.97323999999999999</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>0.48662</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>59</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="5"/>
+        <v>990.0200000000001</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>0.13668583877962878</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>0.18393049917605298</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="3"/>
+        <v>0.99002000000000012</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="4"/>
+        <v>0.49501000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>1006.8000000000001</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>0.13441503148764061</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>0.18393548712915392</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>1.0068000000000001</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>0.50340000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>61</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>1023.58</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>0.13214523266401129</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>0.1838893806410723</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>1.0235800000000002</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>0.51179000000000008</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>62</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>1040.3600000000001</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0.12987884911887296</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>0.1837938787536943</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>1.0403600000000002</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>0.52018000000000009</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>63</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>1057.1400000000001</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0.1276181276994881</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>0.18365063811231155</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>1.0571400000000002</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>0.5285700000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>64</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>1073.92</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0.12536516322728369</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>0.1834612739061329</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>1.07392</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>0.53695999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>65</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>1090.7</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0.12312190608522393</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>0.18322736078923485</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>1.0907</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>0.54535</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>66</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>1107.48</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>0.12089016946995691</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>0.18295043378234163</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>1.10748</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>0.55374000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>67</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>1124.26</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:D81" si="6">F75*EXP(-2*F75)</f>
+        <v>0.11867163632259735</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ref="E75:E81" si="7">G75*EXP(-2*G75)</f>
+        <v>0.18263198915581802</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75:F81" si="8">$A$10*B75*0.001</f>
+        <v>1.12426</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ref="G75:G81" si="9">$A$11*B75*0.001</f>
+        <v>0.56213000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>68</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>1141.04</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>0.11646786595145865</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>0.18227348529424978</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>1.1410400000000001</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="9"/>
+        <v>0.57052000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>69</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:C81" si="10">B77*$A$10</f>
+        <v>1157.8200000000002</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>0.1142803003595185</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>0.18187634354298096</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>1.1578200000000003</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="9"/>
+        <v>0.57891000000000015</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>70</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="10"/>
+        <v>1174.6000000000001</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>0.11211027028889403</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="7"/>
+        <v>0.18144194903696811</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="8"/>
+        <v>1.1746000000000001</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="9"/>
+        <v>0.58730000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>71</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="10"/>
+        <v>1191.3800000000001</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>0.10995900099411311</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="7"/>
+        <v>0.18097165151230626</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="8"/>
+        <v>1.1913800000000001</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="9"/>
+        <v>0.59569000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>72</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="10"/>
+        <v>1208.1600000000001</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>0.10782761775550047</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="7"/>
+        <v>0.18046676610077372</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="8"/>
+        <v>1.2081600000000001</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>0.60408000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>73</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="10"/>
+        <v>1224.94</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>0.10571715114354308</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="7"/>
+        <v>0.17992857410773566</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="8"/>
+        <v>1.2249400000000001</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="9"/>
+        <v>0.61247000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/BS/BS50Tx50Rx/5tx_oneBS/trx_rate.xlsx
+++ b/experiments/BS/BS50Tx50Rx/5tx_oneBS/trx_rate.xlsx
@@ -433,8 +433,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>TRx [ms]</a:t>
+                  <a:t>Throughput</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [msg/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -873,7 +878,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Received messages [msg/s]</a:t>
+                  <a:t>Trx [ms]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3967,15 +3972,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>359050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>35201</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9939</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4262,7 +4267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/experiments/BS/BS50Tx50Rx/5tx_oneBS/trx_rate.xlsx
+++ b/experiments/BS/BS50Tx50Rx/5tx_oneBS/trx_rate.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Mps tx</t>
   </si>
@@ -55,6 +56,21 @@
   <si>
     <t>G8</t>
   </si>
+  <si>
+    <t>Rx rate</t>
+  </si>
+  <si>
+    <t>msg/scan</t>
+  </si>
+  <si>
+    <t>Tx rate</t>
+  </si>
+  <si>
+    <t>Trx 2</t>
+  </si>
+  <si>
+    <t>Rx rate (combined)</t>
+  </si>
 </sst>
 </file>
 
@@ -69,12 +85,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2239,6 +2262,1106 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60.886782125466702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.011667670025702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.3054921044506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.060697311564198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.248554411512899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AE8-4D3A-8382-70233BF4FD3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>old</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$8:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>61.243977460397701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.673922928262201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.2006306638566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.048144593253895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.232109303295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8AE8-4D3A-8382-70233BF4FD3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Trx 2dev</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>62.1739662935803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.088461597953398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.252470190023701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134.697934648336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8AE8-4D3A-8382-70233BF4FD3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1851613759"/>
+        <c:axId val="1851615423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1851613759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851615423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1851615423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851613759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7400100797324596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4624752302059694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.723976843183401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.345811526538903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.661779943316603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8123-4A8D-892E-472A2663E778}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Old</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$8:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$8:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.82629032573948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.374916150802001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.567088458063303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.351439181566604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.0435440908538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8123-4A8D-892E-472A2663E778}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Rx rate-2dev</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>9.5500864887086205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.8311667286521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.422363915698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.067156312941798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8123-4A8D-892E-472A2663E778}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1851613759"/>
+        <c:axId val="1851615423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1851613759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851615423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1851615423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851613759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2359,6 +3482,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3888,6 +5091,1012 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3994,6 +6203,73 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>904874</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4267,8 +6543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6221,4 +8497,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12.5</v>
+      </c>
+      <c r="B2">
+        <v>60.886782125466702</v>
+      </c>
+      <c r="C2">
+        <v>4.7400100797324596</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>61.011667670025702</v>
+      </c>
+      <c r="C3">
+        <v>9.4624752302059694</v>
+      </c>
+      <c r="D3">
+        <v>1.48599537541992</v>
+      </c>
+      <c r="F3">
+        <v>62.1739662935803</v>
+      </c>
+      <c r="G3">
+        <v>9.5500864887086205</v>
+      </c>
+      <c r="H3">
+        <v>3.0226453937210498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>61.3054921044506</v>
+      </c>
+      <c r="C4">
+        <v>18.723976843183401</v>
+      </c>
+      <c r="D4">
+        <v>2.9730248356786801</v>
+      </c>
+      <c r="F4">
+        <v>71.088461597953398</v>
+      </c>
+      <c r="G4">
+        <v>17.8311667286521</v>
+      </c>
+      <c r="H4">
+        <v>5.9507884558167197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>71.060697311564198</v>
+      </c>
+      <c r="C5">
+        <v>35.345811526538903</v>
+      </c>
+      <c r="D5">
+        <v>5.9436800672755696</v>
+      </c>
+      <c r="F5">
+        <v>92.252470190023701</v>
+      </c>
+      <c r="G5">
+        <v>31.422363915698</v>
+      </c>
+      <c r="H5">
+        <v>11.881206937514801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>92.248554411512899</v>
+      </c>
+      <c r="C6">
+        <v>62.661779943316603</v>
+      </c>
+      <c r="D6">
+        <v>11.8804213298222</v>
+      </c>
+      <c r="F6">
+        <v>134.697934648336</v>
+      </c>
+      <c r="G6">
+        <v>51.067156312941798</v>
+      </c>
+      <c r="H6">
+        <v>23.779748853896699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>61.243977460397701</v>
+      </c>
+      <c r="C8">
+        <v>9.82629032573948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>61.673922928262201</v>
+      </c>
+      <c r="C9">
+        <v>24.374916150802001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>71.2006306638566</v>
+      </c>
+      <c r="C10">
+        <v>44.567088458063303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>92.048144593253895</v>
+      </c>
+      <c r="C11">
+        <v>76.351439181566604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12">
+        <v>104.232109303295</v>
+      </c>
+      <c r="C12">
+        <v>91.0435440908538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/experiments/BS/BS50Tx50Rx/5tx_oneBS/trx_rate.xlsx
+++ b/experiments/BS/BS50Tx50Rx/5tx_oneBS/trx_rate.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BroadcastSimulation\experiments\BS\BS50Tx50Rx\5tx_oneBS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,112 +28,65 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
-    <t xml:space="preserve">Mps tx</t>
+    <t>Mps tx</t>
   </si>
   <si>
-    <t xml:space="preserve">Mps rx</t>
+    <t>Mps rx</t>
   </si>
   <si>
-    <t xml:space="preserve">Trx</t>
+    <t>Trx</t>
   </si>
   <si>
-    <t xml:space="preserve">Tcomp</t>
+    <t>Tcomp</t>
   </si>
   <si>
-    <t xml:space="preserve">Rate</t>
+    <t>Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Ndevs</t>
+    <t>Ndevs</t>
   </si>
   <si>
-    <t xml:space="preserve">Aloha 16</t>
+    <t>Aloha 16</t>
   </si>
   <si>
-    <t xml:space="preserve">Aloha 8</t>
+    <t>Aloha 8</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
+    <t>G</t>
   </si>
   <si>
-    <t xml:space="preserve">G8</t>
+    <t>G8</t>
   </si>
   <si>
-    <t xml:space="preserve">Tx rate</t>
+    <t>Tx rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Rx rate</t>
+    <t>Rx rate</t>
   </si>
   <si>
-    <t xml:space="preserve">msg/scan</t>
+    <t>msg/scan</t>
   </si>
   <si>
-    <t xml:space="preserve">Trx 2</t>
+    <t>Trx 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Rx rate (combined)</t>
+    <t>Rx rate (combined)</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Tx – 1 Rx</t>
+    <t>1 Tx – 1 Rx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -146,7 +104,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -154,49 +112,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -255,15 +182,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -272,7 +217,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -280,7 +225,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -301,6 +246,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -308,12 +254,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -323,24 +266,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -349,8 +299,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -386,13 +342,13 @@
                   <c:v>9.82629032573948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.374916150802</c:v>
+                  <c:v>24.374916150802001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.5670884580633</c:v>
+                  <c:v>44.567088458063303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.3514391815666</c:v>
+                  <c:v>76.351439181566604</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>91.0435440908538</c:v>
@@ -401,7 +357,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-487F-405E-8FA2-4ECE78A4C86D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="34232750"/>
         <c:axId val="91673373"/>
       </c:scatterChart>
@@ -419,7 +388,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -427,7 +396,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -453,7 +422,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -463,13 +432,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="91673373"/>
@@ -487,7 +457,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -500,7 +470,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -508,7 +478,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -534,7 +504,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -544,13 +514,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="34232750"/>
@@ -566,25 +537,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -593,7 +572,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -601,7 +580,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -622,6 +601,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -629,12 +609,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -644,24 +621,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -670,8 +654,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -704,16 +694,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>61.2439774603977</c:v>
+                  <c:v>61.243977460397701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.6739229282622</c:v>
+                  <c:v>61.673922928262201</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>71.2006306638566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.0481445932539</c:v>
+                  <c:v>92.048144593253895</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>104.232109303295</c:v>
@@ -722,7 +712,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF71-4703-AE9C-80C40303881E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="86532561"/>
         <c:axId val="17841367"/>
       </c:scatterChart>
@@ -740,7 +743,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -748,7 +751,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -774,7 +777,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -784,13 +787,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17841367"/>
@@ -808,7 +812,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -821,7 +825,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -829,7 +833,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -855,7 +859,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -865,13 +869,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="86532561"/>
@@ -887,25 +892,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -914,7 +927,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -922,7 +935,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -943,6 +956,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -950,12 +964,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -965,24 +976,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -991,8 +1009,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1226,225 +1250,230 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.0313813849647114</c:v>
+                  <c:v>3.1381384964711448E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0455185524819673</c:v>
+                  <c:v>4.5518552481967317E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0586883982302394</c:v>
+                  <c:v>5.8688398230239427E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0709393731859872</c:v>
+                  <c:v>7.0939373185987184E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0823177838718162</c:v>
+                  <c:v>8.2317783871816166E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0928678811307124</c:v>
+                  <c:v>9.286788113071244E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.102631945376376</c:v>
+                  <c:v>0.10263194537637575</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.111650368455557</c:v>
+                  <c:v>0.1116503684555574</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.119961732253177</c:v>
+                  <c:v>0.11996173225317656</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.127602884166047</c:v>
+                  <c:v>0.12760288416604734</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13460900956629</c:v>
+                  <c:v>0.13460900956628993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14101370137092</c:v>
+                  <c:v>0.1410137013709199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.146849026829698</c:v>
+                  <c:v>0.14684902682969753</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.152145591639075</c:v>
+                  <c:v>0.15214559163907454</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.156932601485986</c:v>
+                  <c:v>0.15693260148598595</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.161237921121301</c:v>
+                  <c:v>0.16123792112130089</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.165088131058955</c:v>
+                  <c:v>0.16508813105895545</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.168508581993145</c:v>
+                  <c:v>0.16850858199314508</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.171523447022441</c:v>
+                  <c:v>0.17152344702244129</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.174155771766318</c:v>
+                  <c:v>0.17415577176631813</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.176427522456319</c:v>
+                  <c:v>0.17642752245631918</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.178359632080965</c:v>
+                  <c:v>0.17835963208096492</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.179972044660484</c:v>
+                  <c:v>0.17997204466048411</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.181283757724551</c:v>
+                  <c:v>0.18128375772455105</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.182312863063418</c:v>
+                  <c:v>0.18231286306341776</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.18307658582014</c:v>
+                  <c:v>0.18307658582014028</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.183591321989011</c:v>
+                  <c:v>0.18359132198901093</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.183872674382818</c:v>
+                  <c:v>0.18387267438281771</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.183935487129154</c:v>
+                  <c:v>0.18393548712915392</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.183793878753694</c:v>
+                  <c:v>0.1837938787536943</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.183461273906133</c:v>
+                  <c:v>0.1834612739061329</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.182950433782342</c:v>
+                  <c:v>0.18295043378234163</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.18227348529425</c:v>
+                  <c:v>0.18227348529424978</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.181441949036968</c:v>
+                  <c:v>0.18144194903696811</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.180466766100774</c:v>
+                  <c:v>0.18046676610077372</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.179358323773741</c:v>
+                  <c:v>0.17935832377374092</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.178126480179038</c:v>
+                  <c:v>0.17812648017903826</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.176780587889215</c:v>
+                  <c:v>0.17678058788921475</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.175329516558166</c:v>
+                  <c:v>0.17532951655816584</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.173781674609897</c:v>
+                  <c:v>0.17378167460989699</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.172145030021692</c:v>
+                  <c:v>0.17214503002169185</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.170427130237836</c:v>
+                  <c:v>0.17042713023783551</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.168635121248646</c:v>
+                  <c:v>0.16863512124864558</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.166775765868215</c:v>
+                  <c:v>0.16677576586821513</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.164855461242976</c:v>
+                  <c:v>0.16485546124297648</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.162880255621949</c:v>
+                  <c:v>0.16288025562194874</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.160855864418332</c:v>
+                  <c:v>0.16085586441833175</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.158787685590956</c:v>
+                  <c:v>0.15878768559095555</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.156680814372986</c:v>
+                  <c:v>0.15668081437298553</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.154540057374214</c:v>
+                  <c:v>0.15454005737421395</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.152369946082243</c:v>
+                  <c:v>0.15236994608224311</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.150174749786877</c:v>
+                  <c:v>0.15017474978687659</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.147958487951085</c:v>
+                  <c:v>0.14795848795108454</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.145724942050996</c:v>
+                  <c:v>0.14572494205099598</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.14347766690649</c:v>
+                  <c:v>0.14347766690649022</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.141220001523116</c:v>
+                  <c:v>0.14122000152311553</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.138955079465249</c:v>
+                  <c:v>0.1389550794652489</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.136685838779629</c:v>
+                  <c:v>0.13668583877962878</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.134415031487641</c:v>
+                  <c:v>0.13441503148764061</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.132145232664011</c:v>
+                  <c:v>0.13214523266401129</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.129878849118873</c:v>
+                  <c:v>0.12987884911887296</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.127618127699488</c:v>
+                  <c:v>0.1276181276994881</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.125365163227284</c:v>
+                  <c:v>0.12536516322728369</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.123121906085224</c:v>
+                  <c:v>0.12312190608522393</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.120890169469957</c:v>
+                  <c:v>0.12089016946995691</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.118671636322597</c:v>
+                  <c:v>0.11867163632259735</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.116467865951459</c:v>
+                  <c:v>0.11646786595145865</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.114280300359518</c:v>
+                  <c:v>0.1142803003595185</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.112110270288894</c:v>
+                  <c:v>0.11211027028889403</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.109959000994113</c:v>
+                  <c:v>0.10995900099411311</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1078276177555</c:v>
+                  <c:v>0.10782761775550047</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.105717151143543</c:v>
+                  <c:v>0.10571715114354308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-139C-4F1E-AFD2-464559DD8AA6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1461,12 +1490,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1476,24 +1502,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1502,8 +1535,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1737,226 +1776,239 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>0.0162262078087867</c:v>
+                  <c:v>1.6226207808786655E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0239343055672305</c:v>
+                  <c:v>2.3934305567230453E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0313813849647114</c:v>
+                  <c:v>3.1381384964711448E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0385739984001669</c:v>
+                  <c:v>3.8573998400166939E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0455185524819673</c:v>
+                  <c:v>4.5518552481967317E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.052221311065535</c:v>
+                  <c:v>5.2221311065535028E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0586883982302394</c:v>
+                  <c:v>5.8688398230239427E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0649258011967474</c:v>
+                  <c:v>6.4925801196747429E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0709393731859872</c:v>
+                  <c:v>7.0939373185987184E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0767348362208603</c:v>
+                  <c:v>7.6734836220860317E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0823177838718162</c:v>
+                  <c:v>8.2317783871816166E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0876936839473808</c:v>
+                  <c:v>8.7693683947380821E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0928678811307124</c:v>
+                  <c:v>9.286788113071244E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0978455995632342</c:v>
+                  <c:v>9.7845599563234145E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.102631945376376</c:v>
+                  <c:v>0.10263194537637575</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.107231909172436</c:v>
+                  <c:v>0.10723190917243605</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.111650368455557</c:v>
+                  <c:v>0.1116503684555574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.115892090013787</c:v>
+                  <c:v>0.11589209001378666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.119961732253177</c:v>
+                  <c:v>0.11996173225317656</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.123863847484865</c:v>
+                  <c:v>0.12386384748486459</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.127602884166047</c:v>
+                  <c:v>0.12760288416604734</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.131183189095752</c:v>
+                  <c:v>0.1311831890957523</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.13460900956629</c:v>
+                  <c:v>0.13460900956628993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.137884495471254</c:v>
+                  <c:v>0.13788449547125409</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.14101370137092</c:v>
+                  <c:v>0.1410137013709199</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.144000588515874</c:v>
+                  <c:v>0.14400058851587444</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.146849026829698</c:v>
+                  <c:v>0.14684902682969753</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.149562796851495</c:v>
+                  <c:v>0.14956279685149543</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.152145591639075</c:v>
+                  <c:v>0.15214559163907454</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.154601018633527</c:v>
+                  <c:v>0.15460101863352704</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.156932601485986</c:v>
+                  <c:v>0.15693260148598595</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.159143781847292</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.161237921121301</c:v>
+                  <c:v>0.16123792112130089</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.163218302182546</c:v>
+                  <c:v>0.16321830218254585</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.165088131058955</c:v>
+                  <c:v>0.16508813105895545</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.166850538580315</c:v>
+                  <c:v>0.16685053858031504</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.168508581993145</c:v>
+                  <c:v>0.16850858199314508</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.170065246542658</c:v>
+                  <c:v>0.17006524654265778</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.171523447022441</c:v>
+                  <c:v>0.17152344702244129</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.172886029292506</c:v>
+                  <c:v>0.17288602929250596</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.174155771766318</c:v>
+                  <c:v>0.17415577176631813</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.175335386867432</c:v>
+                  <c:v>0.17533538686743178</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.176427522456319</c:v>
+                  <c:v>0.17642752245631918</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.177434763227988</c:v>
+                  <c:v>0.1774347632279884</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.178359632080965</c:v>
+                  <c:v>0.17835963208096492</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.179204591458203</c:v>
+                  <c:v>0.17920459145820325</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.179972044660484</c:v>
+                  <c:v>0.17997204466048411</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.180664337132841</c:v>
+                  <c:v>0.18066433713284111</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.181283757724551</c:v>
+                  <c:v>0.18128375772455105</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.181832539923211</c:v>
+                  <c:v>0.18183253992321122</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.182312863063418</c:v>
+                  <c:v>0.18231286306341776</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.182726853510548</c:v>
+                  <c:v>0.18272685351054782</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.18307658582014</c:v>
+                  <c:v>0.18307658582014028</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.183364083873359</c:v>
+                  <c:v>0.18336408387335851</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.183591321989011</c:v>
+                  <c:v>0.18359132198901093</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.183760226012594</c:v>
+                  <c:v>0.1837602260125944</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.183872674382818</c:v>
+                  <c:v>0.18387267438281771</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.183930499176053</c:v>
+                  <c:v>0.18393049917605298</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.183935487129154</c:v>
+                  <c:v>0.18393548712915392</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.183889380641072</c:v>
+                  <c:v>0.1838893806410723</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.183793878753694</c:v>
+                  <c:v>0.1837938787536943</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.183650638112312</c:v>
+                  <c:v>0.18365063811231155</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.183461273906133</c:v>
+                  <c:v>0.1834612739061329</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.183227360789235</c:v>
+                  <c:v>0.18322736078923485</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.182950433782342</c:v>
+                  <c:v>0.18295043378234163</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.182631989155818</c:v>
+                  <c:v>0.18263198915581802</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.18227348529425</c:v>
+                  <c:v>0.18227348529424978</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.181876343542981</c:v>
+                  <c:v>0.18187634354298096</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.181441949036968</c:v>
+                  <c:v>0.18144194903696811</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.180971651512306</c:v>
+                  <c:v>0.18097165151230626</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.180466766100774</c:v>
+                  <c:v>0.18046676610077372</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.179928574107736</c:v>
+                  <c:v>0.17992857410773566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-139C-4F1E-AFD2-464559DD8AA6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="97881889"/>
         <c:axId val="17094390"/>
       </c:scatterChart>
@@ -1971,7 +2023,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1984,7 +2036,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1994,13 +2046,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17094390"/>
@@ -2018,7 +2071,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2031,7 +2084,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2041,13 +2094,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97881889"/>
@@ -2063,27 +2117,37 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2091,23 +2155,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"1 Tx - 1 Rx"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 Tx - 1 Rx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>1 Tx - 1 Rx</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2117,24 +2170,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2143,8 +2203,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2177,46 +2243,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>60.8867821254667</c:v>
+                  <c:v>60.886782125466702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.0116676700257</c:v>
+                  <c:v>61.011667670025702</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>61.3054921044506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.0606973115642</c:v>
+                  <c:v>71.060697311564198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.2485544115129</c:v>
+                  <c:v>92.248554411512899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3311-46AC-8E57-1983950329A1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>" 2 Tx - 1 Rx"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> 2 Tx - 1 Rx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v> 2 Tx - 1 Rx</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="FFD320"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2226,20 +2286,28 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="FFD320"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2247,8 +2315,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2281,16 +2355,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>60.9940837464827</c:v>
+                  <c:v>60.994083746482701</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>62.1739662935803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.0884615979534</c:v>
+                  <c:v>71.088461597953398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.2524701900237</c:v>
+                  <c:v>92.252470190023701</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>134.697934648336</c:v>
@@ -2299,28 +2373,22 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3311-46AC-8E57-1983950329A1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"1 Tx - 1 Rx (no switching)"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 Tx - 1 Rx (no switching)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>1 Tx - 1 Rx (no switching)</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2330,24 +2398,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2356,8 +2431,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2376,9 +2457,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,25 +2468,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>61.2439774603977</c:v>
+                  <c:v>61.243977460397701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.6739229282622</c:v>
+                  <c:v>61.673922928262201</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>71.2006306638566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.0481445932539</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
+                  <c:v>92.048144593253895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3311-46AC-8E57-1983950329A1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="16772719"/>
         <c:axId val="17793191"/>
       </c:scatterChart>
@@ -2428,12 +2516,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tx rate [msg/s]</a:t>
@@ -2441,6 +2529,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2456,7 +2545,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2466,13 +2555,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17793191"/>
@@ -2491,7 +2581,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2504,12 +2594,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Trx [ms]</a:t>
@@ -2517,6 +2607,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2539,13 +2630,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="16772719"/>
@@ -2560,16 +2652,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16192260245808"/>
-          <c:y val="0.0303923495120194"/>
-          <c:w val="0.695572714396674"/>
-          <c:h val="0.0865264950546931"/>
+          <c:x val="0.16192260245807999"/>
+          <c:y val="3.0392349512019402E-2"/>
+          <c:w val="0.69557271439667401"/>
+          <c:h val="8.6526495054693106E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2581,39 +2675,50 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+            <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2632,12 +2737,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2647,24 +2749,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="404040"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2673,8 +2782,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2707,46 +2822,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.74001007973246</c:v>
+                  <c:v>4.7400100797324596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.46247523020597</c:v>
+                  <c:v>9.4624752302059694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.7239768431834</c:v>
+                  <c:v>18.723976843183401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.3458115265389</c:v>
+                  <c:v>35.345811526538903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.6617799433166</c:v>
+                  <c:v>62.661779943316603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E07E-4C97-9751-F49B0106F8BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"1 Tx - 1 Rx (no broadcast)"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 Tx - 1 Rx (no broadcast)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>1 Tx - 1 Rx (no broadcast)</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2756,24 +2865,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2782,8 +2898,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2802,9 +2924,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2819,43 +2938,34 @@
                   <c:v>9.82629032573948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.374916150802</c:v>
+                  <c:v>24.374916150802001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.5670884580633</c:v>
+                  <c:v>44.567088458063303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.3514391815666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
+                  <c:v>76.351439181566604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E07E-4C97-9751-F49B0106F8BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"2 Tx - 1 Rx"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 Tx - 1 Rx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2 Tx - 1 Rx</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2865,24 +2975,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2891,8 +3008,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2925,10 +3048,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.73011027925252</c:v>
+                  <c:v>4.7301102792525196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.55008648870862</c:v>
+                  <c:v>9.5500864887086205</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17.8311667286521</c:v>
@@ -2937,13 +3060,26 @@
                   <c:v>31.422363915698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.0671563129418</c:v>
+                  <c:v>51.067156312941798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E07E-4C97-9751-F49B0106F8BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="26518190"/>
         <c:axId val="59045390"/>
       </c:scatterChart>
@@ -2973,12 +3109,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tx rate [msg/s]</a:t>
@@ -2986,6 +3122,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3001,7 +3138,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3011,13 +3148,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59045390"/>
@@ -3035,7 +3173,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3048,12 +3186,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1600" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Rx rate [msg/s]</a:t>
@@ -3061,6 +3199,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3083,13 +3222,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="26518190"/>
@@ -3106,16 +3246,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.152556151020654"/>
+          <c:x val="0.15255615102065401"/>
           <c:y val="0.102280501710376"/>
-          <c:w val="0.603420244475221"/>
-          <c:h val="0.0964652223489168"/>
+          <c:w val="0.60342024447522102"/>
+          <c:h val="9.6465222348916801E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3127,35 +3269,42 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+            <a:defRPr sz="1600" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3169,14 +3318,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5483520" y="457200"/>
-        <a:ext cx="5490000" cy="3942720"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3199,14 +3348,14 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11117160" y="313560"/>
-        <a:ext cx="6446880" cy="4325040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3229,14 +3378,14 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5490000" y="4629600"/>
-        <a:ext cx="11306520" cy="7762320"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3250,7 +3399,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3264,14 +3413,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6732360" y="979560"/>
-        <a:ext cx="7879320" cy="5496120"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3294,14 +3443,14 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4389120" y="6441120"/>
-        <a:ext cx="10913760" cy="6319800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3314,2194 +3463,2582 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
+    <col min="1" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>9.82629032573948</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>61.2439774603977</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <f aca="false">C2-60</f>
-        <v>1.2439774603977</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="C2">
+        <v>61.243977460397701</v>
+      </c>
+      <c r="D2">
+        <f>C2-60</f>
+        <v>1.2439774603977014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>50</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>24.374916150802</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>61.6739229282622</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">C3-60</f>
-        <v>1.6739229282622</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="B3">
+        <v>24.374916150802001</v>
+      </c>
+      <c r="C3">
+        <v>61.673922928262201</v>
+      </c>
+      <c r="D3">
+        <f>C3-60</f>
+        <v>1.6739229282622006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>44.5670884580633</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4">
+        <v>44.567088458063303</v>
+      </c>
+      <c r="C4">
         <v>71.2006306638566</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">C4-60</f>
+      <c r="D4">
+        <f>C4-60</f>
         <v>11.2006306638566</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>76.3514391815666</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>92.0481445932539</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">C5-60</f>
-        <v>32.0481445932539</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="B5">
+        <v>76.351439181566604</v>
+      </c>
+      <c r="C5">
+        <v>92.048144593253895</v>
+      </c>
+      <c r="D5">
+        <f>C5-60</f>
+        <v>32.048144593253895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>300</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>91.0435440908538</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>104.232109303295</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">C6-60</f>
-        <v>44.232109303295</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="D6">
+        <f>C6-60</f>
+        <v>44.232109303295005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">B9*$A$10</f>
+      <c r="C9">
+        <f t="shared" ref="C9:C40" si="0">B9*$A$10</f>
         <v>16.78</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">F9*EXP(-2*F9)</f>
-        <v>0.0162262078087867</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <f aca="false">G9*EXP(-2*G9)</f>
-        <v>0.00825039040033016</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <f aca="false">$A$10*B9*0.001</f>
-        <v>0.01678</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">$A$11*B9*0.001</f>
-        <v>0.00839</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="D9">
+        <f t="shared" ref="D9:D40" si="1">F9*EXP(-2*F9)</f>
+        <v>1.6226207808786655E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E40" si="2">G9*EXP(-2*G9)</f>
+        <v>8.2503904003301577E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F40" si="3">$A$10*B9*0.001</f>
+        <v>1.678E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G40" si="4">$A$11*B9*0.001</f>
+        <v>8.3899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>16.78</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">B10*$A$10</f>
+      <c r="C10">
+        <f t="shared" si="0"/>
         <v>33.56</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">F10*EXP(-2*F10)</f>
-        <v>0.0313813849647114</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <f aca="false">G10*EXP(-2*G10)</f>
-        <v>0.0162262078087867</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <f aca="false">$A$10*B10*0.001</f>
-        <v>0.03356</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">$A$11*B10*0.001</f>
-        <v>0.01678</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <f aca="false">A10/2</f>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>3.1381384964711448E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>1.6226207808786655E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>3.356E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>1.678E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10/2</f>
         <v>8.39</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">B11*$A$10</f>
+      <c r="C11">
+        <f t="shared" si="0"/>
         <v>50.34</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">F11*EXP(-2*F11)</f>
-        <v>0.0455185524819673</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <f aca="false">G11*EXP(-2*G11)</f>
-        <v>0.0239343055672305</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">$A$10*B11*0.001</f>
-        <v>0.05034</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">$A$11*B11*0.001</f>
-        <v>0.02517</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>4.5518552481967317E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>2.3934305567230453E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>5.0340000000000003E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>2.5170000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">B12*$A$10</f>
+      <c r="C12">
+        <f t="shared" si="0"/>
         <v>67.12</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">F12*EXP(-2*F12)</f>
-        <v>0.0586883982302394</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">G12*EXP(-2*G12)</f>
-        <v>0.0313813849647114</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <f aca="false">$A$10*B12*0.001</f>
-        <v>0.06712</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">$A$11*B12*0.001</f>
-        <v>0.03356</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>5.8688398230239427E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>3.1381384964711448E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>6.7119999999999999E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>3.356E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <f aca="false">B13*$A$10</f>
+      <c r="C13">
+        <f t="shared" si="0"/>
         <v>83.9</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <f aca="false">F13*EXP(-2*F13)</f>
-        <v>0.0709393731859872</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <f aca="false">G13*EXP(-2*G13)</f>
-        <v>0.0385739984001669</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <f aca="false">$A$10*B13*0.001</f>
-        <v>0.0839</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">$A$11*B13*0.001</f>
-        <v>0.04195</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>7.0939373185987184E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>3.8573998400166939E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>4.1950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <f aca="false">B14*$A$10</f>
+      <c r="C14">
+        <f t="shared" si="0"/>
         <v>100.68</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <f aca="false">F14*EXP(-2*F14)</f>
-        <v>0.0823177838718162</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">G14*EXP(-2*G14)</f>
-        <v>0.0455185524819673</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <f aca="false">$A$10*B14*0.001</f>
-        <v>0.10068</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <f aca="false">$A$11*B14*0.001</f>
-        <v>0.05034</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>8.2317783871816166E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>4.5518552481967317E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.10068000000000001</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>5.0340000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <f aca="false">B15*$A$10</f>
-        <v>117.46</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <f aca="false">F15*EXP(-2*F15)</f>
-        <v>0.0928678811307124</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">G15*EXP(-2*G15)</f>
-        <v>0.052221311065535</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <f aca="false">$A$10*B15*0.001</f>
-        <v>0.11746</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <f aca="false">$A$11*B15*0.001</f>
-        <v>0.05873</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>117.46000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>9.286788113071244E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>5.2221311065535028E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.11746000000000001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>5.8730000000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>8</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <f aca="false">B16*$A$10</f>
+      <c r="C16">
+        <f t="shared" si="0"/>
         <v>134.24</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">F16*EXP(-2*F16)</f>
-        <v>0.102631945376376</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <f aca="false">G16*EXP(-2*G16)</f>
-        <v>0.0586883982302394</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <f aca="false">$A$10*B16*0.001</f>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.10263194537637575</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>5.8688398230239427E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
         <v>0.13424</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">$A$11*B16*0.001</f>
-        <v>0.06712</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>6.7119999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <f aca="false">B17*$A$10</f>
-        <v>151.02</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">F17*EXP(-2*F17)</f>
-        <v>0.111650368455557</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <f aca="false">G17*EXP(-2*G17)</f>
-        <v>0.0649258011967474</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <f aca="false">$A$10*B17*0.001</f>
-        <v>0.15102</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <f aca="false">$A$11*B17*0.001</f>
-        <v>0.07551</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>151.02000000000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.1116503684555574</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>6.4925801196747429E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0.15102000000000002</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>7.5510000000000008E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <f aca="false">B18*$A$10</f>
+      <c r="C18">
+        <f t="shared" si="0"/>
         <v>167.8</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">F18*EXP(-2*F18)</f>
-        <v>0.119961732253177</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <f aca="false">G18*EXP(-2*G18)</f>
-        <v>0.0709393731859872</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <f aca="false">$A$10*B18*0.001</f>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.11996173225317656</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>7.0939373185987184E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
         <v>0.1678</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <f aca="false">$A$11*B18*0.001</f>
-        <v>0.0839</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>8.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>11</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <f aca="false">B19*$A$10</f>
+      <c r="C19">
+        <f t="shared" si="0"/>
         <v>184.58</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">F19*EXP(-2*F19)</f>
-        <v>0.127602884166047</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <f aca="false">G19*EXP(-2*G19)</f>
-        <v>0.0767348362208603</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <f aca="false">$A$10*B19*0.001</f>
-        <v>0.18458</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false">$A$11*B19*0.001</f>
-        <v>0.09229</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.12760288416604734</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>7.6734836220860317E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0.18458000000000002</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>9.2290000000000011E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>12</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <f aca="false">B20*$A$10</f>
+      <c r="C20">
+        <f t="shared" si="0"/>
         <v>201.36</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <f aca="false">F20*EXP(-2*F20)</f>
-        <v>0.13460900956629</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <f aca="false">G20*EXP(-2*G20)</f>
-        <v>0.0823177838718162</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <f aca="false">$A$10*B20*0.001</f>
-        <v>0.20136</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <f aca="false">$A$11*B20*0.001</f>
-        <v>0.10068</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.13460900956628993</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>8.2317783871816166E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0.20136000000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>0.10068000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>13</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <f aca="false">B21*$A$10</f>
-        <v>218.14</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <f aca="false">F21*EXP(-2*F21)</f>
-        <v>0.14101370137092</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <f aca="false">G21*EXP(-2*G21)</f>
-        <v>0.0876936839473808</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <f aca="false">$A$10*B21*0.001</f>
-        <v>0.21814</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <f aca="false">$A$11*B21*0.001</f>
-        <v>0.10907</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>218.14000000000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.1410137013709199</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>8.7693683947380821E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0.21814000000000003</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>0.10907000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>14</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <f aca="false">B22*$A$10</f>
-        <v>234.92</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <f aca="false">F22*EXP(-2*F22)</f>
-        <v>0.146849026829698</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <f aca="false">G22*EXP(-2*G22)</f>
-        <v>0.0928678811307124</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <f aca="false">$A$10*B22*0.001</f>
-        <v>0.23492</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false">$A$11*B22*0.001</f>
-        <v>0.11746</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>234.92000000000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.14684902682969753</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>9.286788113071244E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0.23492000000000002</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>0.11746000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>15</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <f aca="false">B23*$A$10</f>
-        <v>251.7</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <f aca="false">F23*EXP(-2*F23)</f>
-        <v>0.152145591639075</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <f aca="false">G23*EXP(-2*G23)</f>
-        <v>0.0978455995632342</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <f aca="false">$A$10*B23*0.001</f>
-        <v>0.2517</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <f aca="false">$A$11*B23*0.001</f>
-        <v>0.12585</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>251.70000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.15214559163907454</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>9.7845599563234145E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0.25170000000000003</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>0.12585000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>16</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <f aca="false">B24*$A$10</f>
+      <c r="C24">
+        <f t="shared" si="0"/>
         <v>268.48</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <f aca="false">F24*EXP(-2*F24)</f>
-        <v>0.156932601485986</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <f aca="false">G24*EXP(-2*G24)</f>
-        <v>0.102631945376376</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <f aca="false">$A$10*B24*0.001</f>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.15693260148598595</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>0.10263194537637575</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
         <v>0.26848</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false">$A$11*B24*0.001</f>
+      <c r="G24">
+        <f t="shared" si="4"/>
         <v>0.13424</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>17</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <f aca="false">B25*$A$10</f>
+      <c r="C25">
+        <f t="shared" si="0"/>
         <v>285.26</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <f aca="false">F25*EXP(-2*F25)</f>
-        <v>0.161237921121301</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <f aca="false">G25*EXP(-2*G25)</f>
-        <v>0.107231909172436</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <f aca="false">$A$10*B25*0.001</f>
-        <v>0.28526</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <f aca="false">$A$11*B25*0.001</f>
-        <v>0.14263</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="n">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.16123792112130089</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>0.10723190917243605</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0.28526000000000001</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>0.14263000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>18</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <f aca="false">B26*$A$10</f>
-        <v>302.04</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <f aca="false">F26*EXP(-2*F26)</f>
-        <v>0.165088131058955</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <f aca="false">G26*EXP(-2*G26)</f>
-        <v>0.111650368455557</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <f aca="false">$A$10*B26*0.001</f>
-        <v>0.30204</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <f aca="false">$A$11*B26*0.001</f>
-        <v>0.15102</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="n">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>302.04000000000002</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.16508813105895545</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0.1116503684555574</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.30204000000000003</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>0.15102000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>19</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <f aca="false">B27*$A$10</f>
-        <v>318.82</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <f aca="false">F27*EXP(-2*F27)</f>
-        <v>0.168508581993145</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <f aca="false">G27*EXP(-2*G27)</f>
-        <v>0.115892090013787</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <f aca="false">$A$10*B27*0.001</f>
-        <v>0.31882</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <f aca="false">$A$11*B27*0.001</f>
-        <v>0.15941</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="n">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>318.82000000000005</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.16850858199314508</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>0.11589209001378666</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.31882000000000005</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>0.15941000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>20</v>
       </c>
-      <c r="C28" s="0" t="n">
-        <f aca="false">B28*$A$10</f>
+      <c r="C28">
+        <f t="shared" si="0"/>
         <v>335.6</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <f aca="false">F28*EXP(-2*F28)</f>
-        <v>0.171523447022441</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <f aca="false">G28*EXP(-2*G28)</f>
-        <v>0.119961732253177</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <f aca="false">$A$10*B28*0.001</f>
-        <v>0.3356</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <f aca="false">$A$11*B28*0.001</f>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.17152344702244129</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0.11996173225317656</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
         <v>0.1678</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="n">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>21</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <f aca="false">B29*$A$10</f>
+      <c r="C29">
+        <f t="shared" si="0"/>
         <v>352.38</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <f aca="false">F29*EXP(-2*F29)</f>
-        <v>0.174155771766318</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <f aca="false">G29*EXP(-2*G29)</f>
-        <v>0.123863847484865</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <f aca="false">$A$10*B29*0.001</f>
-        <v>0.35238</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <f aca="false">$A$11*B29*0.001</f>
-        <v>0.17619</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="n">
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.17415577176631813</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.12386384748486459</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.35238000000000003</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0.17619000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>22</v>
       </c>
-      <c r="C30" s="0" t="n">
-        <f aca="false">B30*$A$10</f>
+      <c r="C30">
+        <f t="shared" si="0"/>
         <v>369.16</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <f aca="false">F30*EXP(-2*F30)</f>
-        <v>0.176427522456319</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <f aca="false">G30*EXP(-2*G30)</f>
-        <v>0.127602884166047</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <f aca="false">$A$10*B30*0.001</f>
-        <v>0.36916</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <f aca="false">$A$11*B30*0.001</f>
-        <v>0.18458</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="n">
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.17642752245631918</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0.12760288416604734</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.36916000000000004</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0.18458000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>23</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <f aca="false">B31*$A$10</f>
-        <v>385.94</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <f aca="false">F31*EXP(-2*F31)</f>
-        <v>0.178359632080965</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <f aca="false">G31*EXP(-2*G31)</f>
-        <v>0.131183189095752</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <f aca="false">$A$10*B31*0.001</f>
-        <v>0.38594</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <f aca="false">$A$11*B31*0.001</f>
-        <v>0.19297</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="n">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>385.94000000000005</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.17835963208096492</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0.1311831890957523</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.38594000000000006</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>0.19297000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>24</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <f aca="false">B32*$A$10</f>
+      <c r="C32">
+        <f t="shared" si="0"/>
         <v>402.72</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <f aca="false">F32*EXP(-2*F32)</f>
-        <v>0.179972044660484</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <f aca="false">G32*EXP(-2*G32)</f>
-        <v>0.13460900956629</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <f aca="false">$A$10*B32*0.001</f>
-        <v>0.40272</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <f aca="false">$A$11*B32*0.001</f>
-        <v>0.20136</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="n">
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.17997204466048411</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>0.13460900956628993</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.40272000000000002</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0.20136000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>25</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <f aca="false">B33*$A$10</f>
+      <c r="C33">
+        <f t="shared" si="0"/>
         <v>419.5</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <f aca="false">F33*EXP(-2*F33)</f>
-        <v>0.181283757724551</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <f aca="false">G33*EXP(-2*G33)</f>
-        <v>0.137884495471254</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <f aca="false">$A$10*B33*0.001</f>
-        <v>0.4195</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <f aca="false">$A$11*B33*0.001</f>
-        <v>0.20975</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="n">
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.18128375772455105</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0.13788449547125409</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.41949999999999998</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>0.20974999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>26</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <f aca="false">B34*$A$10</f>
-        <v>436.28</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <f aca="false">F34*EXP(-2*F34)</f>
-        <v>0.182312863063418</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <f aca="false">G34*EXP(-2*G34)</f>
-        <v>0.14101370137092</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <f aca="false">$A$10*B34*0.001</f>
-        <v>0.43628</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <f aca="false">$A$11*B34*0.001</f>
-        <v>0.21814</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="n">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>436.28000000000003</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.18231286306341776</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>0.1410137013709199</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.43628000000000006</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>0.21814000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>27</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <f aca="false">B35*$A$10</f>
-        <v>453.06</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <f aca="false">F35*EXP(-2*F35)</f>
-        <v>0.18307658582014</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <f aca="false">G35*EXP(-2*G35)</f>
-        <v>0.144000588515874</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <f aca="false">$A$10*B35*0.001</f>
-        <v>0.45306</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <f aca="false">$A$11*B35*0.001</f>
-        <v>0.22653</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="n">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>453.06000000000006</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.18307658582014028</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>0.14400058851587444</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.45306000000000007</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>0.22653000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>28</v>
       </c>
-      <c r="C36" s="0" t="n">
-        <f aca="false">B36*$A$10</f>
-        <v>469.84</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <f aca="false">F36*EXP(-2*F36)</f>
-        <v>0.183591321989011</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <f aca="false">G36*EXP(-2*G36)</f>
-        <v>0.146849026829698</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <f aca="false">$A$10*B36*0.001</f>
-        <v>0.46984</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <f aca="false">$A$11*B36*0.001</f>
-        <v>0.23492</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="n">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>469.84000000000003</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.18359132198901093</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>0.14684902682969753</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.46984000000000004</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>0.23492000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>29</v>
       </c>
-      <c r="C37" s="0" t="n">
-        <f aca="false">B37*$A$10</f>
+      <c r="C37">
+        <f t="shared" si="0"/>
         <v>486.62</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <f aca="false">F37*EXP(-2*F37)</f>
-        <v>0.183872674382818</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <f aca="false">G37*EXP(-2*G37)</f>
-        <v>0.149562796851495</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <f aca="false">$A$10*B37*0.001</f>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.18387267438281771</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>0.14956279685149543</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
         <v>0.48662</v>
       </c>
-      <c r="G37" s="0" t="n">
-        <f aca="false">$A$11*B37*0.001</f>
+      <c r="G37">
+        <f t="shared" si="4"/>
         <v>0.24331</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="n">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>30</v>
       </c>
-      <c r="C38" s="0" t="n">
-        <f aca="false">B38*$A$10</f>
-        <v>503.4</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <f aca="false">F38*EXP(-2*F38)</f>
-        <v>0.183935487129154</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <f aca="false">G38*EXP(-2*G38)</f>
-        <v>0.152145591639075</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <f aca="false">$A$10*B38*0.001</f>
-        <v>0.5034</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <f aca="false">$A$11*B38*0.001</f>
-        <v>0.2517</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="n">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>503.40000000000003</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.18393548712915392</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>0.15214559163907454</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.50340000000000007</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>0.25170000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>31</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <f aca="false">B39*$A$10</f>
-        <v>520.18</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <f aca="false">F39*EXP(-2*F39)</f>
-        <v>0.183793878753694</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <f aca="false">G39*EXP(-2*G39)</f>
-        <v>0.154601018633527</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <f aca="false">$A$10*B39*0.001</f>
-        <v>0.52018</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <f aca="false">$A$11*B39*0.001</f>
-        <v>0.26009</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="n">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>520.18000000000006</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.1837938787536943</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0.15460101863352704</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.52018000000000009</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>0.26009000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>32</v>
       </c>
-      <c r="C40" s="0" t="n">
-        <f aca="false">B40*$A$10</f>
+      <c r="C40">
+        <f t="shared" si="0"/>
         <v>536.96</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <f aca="false">F40*EXP(-2*F40)</f>
-        <v>0.183461273906133</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <f aca="false">G40*EXP(-2*G40)</f>
-        <v>0.156932601485986</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <f aca="false">$A$10*B40*0.001</f>
-        <v>0.53696</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <f aca="false">$A$11*B40*0.001</f>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0.1834612739061329</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>0.15693260148598595</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.53695999999999999</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
         <v>0.26848</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="n">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>33</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <f aca="false">B41*$A$10</f>
+      <c r="C41">
+        <f t="shared" ref="C41:C72" si="5">B41*$A$10</f>
         <v>553.74</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <f aca="false">F41*EXP(-2*F41)</f>
-        <v>0.182950433782342</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <f aca="false">G41*EXP(-2*G41)</f>
+      <c r="D41">
+        <f t="shared" ref="D41:D72" si="6">F41*EXP(-2*F41)</f>
+        <v>0.18295043378234163</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:E72" si="7">G41*EXP(-2*G41)</f>
         <v>0.159143781847292</v>
       </c>
-      <c r="F41" s="0" t="n">
-        <f aca="false">$A$10*B41*0.001</f>
-        <v>0.55374</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <f aca="false">$A$11*B41*0.001</f>
+      <c r="F41">
+        <f t="shared" ref="F41:F72" si="8">$A$10*B41*0.001</f>
+        <v>0.55374000000000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G72" si="9">$A$11*B41*0.001</f>
         <v>0.27687</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="n">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>34</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <f aca="false">B42*$A$10</f>
+      <c r="C42">
+        <f t="shared" si="5"/>
         <v>570.52</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <f aca="false">F42*EXP(-2*F42)</f>
-        <v>0.18227348529425</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <f aca="false">G42*EXP(-2*G42)</f>
-        <v>0.161237921121301</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <f aca="false">$A$10*B42*0.001</f>
-        <v>0.57052</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <f aca="false">$A$11*B42*0.001</f>
-        <v>0.28526</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="n">
+      <c r="D42">
+        <f t="shared" si="6"/>
+        <v>0.18227348529424978</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
+        <v>0.16123792112130089</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>0.57052000000000003</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>0.28526000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>35</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <f aca="false">B43*$A$10</f>
-        <v>587.3</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <f aca="false">F43*EXP(-2*F43)</f>
-        <v>0.181441949036968</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <f aca="false">G43*EXP(-2*G43)</f>
-        <v>0.163218302182546</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <f aca="false">$A$10*B43*0.001</f>
-        <v>0.5873</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <f aca="false">$A$11*B43*0.001</f>
-        <v>0.29365</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="n">
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>587.30000000000007</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>0.18144194903696811</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>0.16321830218254585</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="8"/>
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>0.29365000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>36</v>
       </c>
-      <c r="C44" s="0" t="n">
-        <f aca="false">B44*$A$10</f>
-        <v>604.08</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <f aca="false">F44*EXP(-2*F44)</f>
-        <v>0.180466766100774</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <f aca="false">G44*EXP(-2*G44)</f>
-        <v>0.165088131058955</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <f aca="false">$A$10*B44*0.001</f>
-        <v>0.60408</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <f aca="false">$A$11*B44*0.001</f>
-        <v>0.30204</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="n">
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>604.08000000000004</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="6"/>
+        <v>0.18046676610077372</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>0.16508813105895545</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="8"/>
+        <v>0.60408000000000006</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>0.30204000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>37</v>
       </c>
-      <c r="C45" s="0" t="n">
-        <f aca="false">B45*$A$10</f>
+      <c r="C45">
+        <f t="shared" si="5"/>
         <v>620.86</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <f aca="false">F45*EXP(-2*F45)</f>
-        <v>0.179358323773741</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <f aca="false">G45*EXP(-2*G45)</f>
-        <v>0.166850538580315</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <f aca="false">$A$10*B45*0.001</f>
-        <v>0.62086</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <f aca="false">$A$11*B45*0.001</f>
-        <v>0.31043</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="n">
+      <c r="D45">
+        <f t="shared" si="6"/>
+        <v>0.17935832377374092</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>0.16685053858031504</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="8"/>
+        <v>0.62086000000000008</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>0.31043000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>38</v>
       </c>
-      <c r="C46" s="0" t="n">
-        <f aca="false">B46*$A$10</f>
-        <v>637.64</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <f aca="false">F46*EXP(-2*F46)</f>
-        <v>0.178126480179038</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <f aca="false">G46*EXP(-2*G46)</f>
-        <v>0.168508581993145</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <f aca="false">$A$10*B46*0.001</f>
-        <v>0.63764</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <f aca="false">$A$11*B46*0.001</f>
-        <v>0.31882</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="n">
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>637.6400000000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="6"/>
+        <v>0.17812648017903826</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="7"/>
+        <v>0.16850858199314508</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="8"/>
+        <v>0.6376400000000001</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="9"/>
+        <v>0.31882000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>39</v>
       </c>
-      <c r="C47" s="0" t="n">
-        <f aca="false">B47*$A$10</f>
-        <v>654.42</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <f aca="false">F47*EXP(-2*F47)</f>
-        <v>0.176780587889215</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <f aca="false">G47*EXP(-2*G47)</f>
-        <v>0.170065246542658</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <f aca="false">$A$10*B47*0.001</f>
-        <v>0.65442</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <f aca="false">$A$11*B47*0.001</f>
-        <v>0.32721</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="n">
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>654.42000000000007</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="6"/>
+        <v>0.17678058788921475</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="7"/>
+        <v>0.17006524654265778</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="8"/>
+        <v>0.65442000000000011</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="9"/>
+        <v>0.32721000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>40</v>
       </c>
-      <c r="C48" s="0" t="n">
-        <f aca="false">B48*$A$10</f>
+      <c r="C48">
+        <f t="shared" si="5"/>
         <v>671.2</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <f aca="false">F48*EXP(-2*F48)</f>
-        <v>0.175329516558166</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <f aca="false">G48*EXP(-2*G48)</f>
-        <v>0.171523447022441</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <f aca="false">$A$10*B48*0.001</f>
-        <v>0.6712</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <f aca="false">$A$11*B48*0.001</f>
-        <v>0.3356</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="n">
+      <c r="D48">
+        <f t="shared" si="6"/>
+        <v>0.17532951655816584</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="7"/>
+        <v>0.17152344702244129</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="8"/>
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="9"/>
+        <v>0.33560000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>41</v>
       </c>
-      <c r="C49" s="0" t="n">
-        <f aca="false">B49*$A$10</f>
+      <c r="C49">
+        <f t="shared" si="5"/>
         <v>687.98</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <f aca="false">F49*EXP(-2*F49)</f>
-        <v>0.173781674609897</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <f aca="false">G49*EXP(-2*G49)</f>
-        <v>0.172886029292506</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <f aca="false">$A$10*B49*0.001</f>
-        <v>0.68798</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <f aca="false">$A$11*B49*0.001</f>
-        <v>0.34399</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="n">
+      <c r="D49">
+        <f t="shared" si="6"/>
+        <v>0.17378167460989699</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="7"/>
+        <v>0.17288602929250596</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="8"/>
+        <v>0.68798000000000004</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="9"/>
+        <v>0.34399000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>42</v>
       </c>
-      <c r="C50" s="0" t="n">
-        <f aca="false">B50*$A$10</f>
+      <c r="C50">
+        <f t="shared" si="5"/>
         <v>704.76</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <f aca="false">F50*EXP(-2*F50)</f>
-        <v>0.172145030021692</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <f aca="false">G50*EXP(-2*G50)</f>
-        <v>0.174155771766318</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <f aca="false">$A$10*B50*0.001</f>
-        <v>0.70476</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <f aca="false">$A$11*B50*0.001</f>
-        <v>0.35238</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="n">
+      <c r="D50">
+        <f t="shared" si="6"/>
+        <v>0.17214503002169185</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="7"/>
+        <v>0.17415577176631813</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="8"/>
+        <v>0.70476000000000005</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="9"/>
+        <v>0.35238000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>43</v>
       </c>
-      <c r="C51" s="0" t="n">
-        <f aca="false">B51*$A$10</f>
-        <v>721.54</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <f aca="false">F51*EXP(-2*F51)</f>
-        <v>0.170427130237836</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <f aca="false">G51*EXP(-2*G51)</f>
-        <v>0.175335386867432</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <f aca="false">$A$10*B51*0.001</f>
-        <v>0.72154</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <f aca="false">$A$11*B51*0.001</f>
-        <v>0.36077</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="n">
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>721.54000000000008</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="6"/>
+        <v>0.17042713023783551</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="7"/>
+        <v>0.17533538686743178</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="8"/>
+        <v>0.72154000000000007</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="9"/>
+        <v>0.36077000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>44</v>
       </c>
-      <c r="C52" s="0" t="n">
-        <f aca="false">B52*$A$10</f>
+      <c r="C52">
+        <f t="shared" si="5"/>
         <v>738.32</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <f aca="false">F52*EXP(-2*F52)</f>
-        <v>0.168635121248646</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <f aca="false">G52*EXP(-2*G52)</f>
-        <v>0.176427522456319</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <f aca="false">$A$10*B52*0.001</f>
-        <v>0.73832</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <f aca="false">$A$11*B52*0.001</f>
-        <v>0.36916</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="n">
+      <c r="D52">
+        <f t="shared" si="6"/>
+        <v>0.16863512124864558</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="7"/>
+        <v>0.17642752245631918</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="8"/>
+        <v>0.73832000000000009</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="9"/>
+        <v>0.36916000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>45</v>
       </c>
-      <c r="C53" s="0" t="n">
-        <f aca="false">B53*$A$10</f>
+      <c r="C53">
+        <f t="shared" si="5"/>
         <v>755.1</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <f aca="false">F53*EXP(-2*F53)</f>
-        <v>0.166775765868215</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <f aca="false">G53*EXP(-2*G53)</f>
-        <v>0.177434763227988</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <f aca="false">$A$10*B53*0.001</f>
-        <v>0.7551</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <f aca="false">$A$11*B53*0.001</f>
+      <c r="D53">
+        <f t="shared" si="6"/>
+        <v>0.16677576586821513</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="7"/>
+        <v>0.1774347632279884</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="8"/>
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="9"/>
         <v>0.37755</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="n">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>46</v>
       </c>
-      <c r="C54" s="0" t="n">
-        <f aca="false">B54*$A$10</f>
-        <v>771.88</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <f aca="false">F54*EXP(-2*F54)</f>
-        <v>0.164855461242976</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <f aca="false">G54*EXP(-2*G54)</f>
-        <v>0.178359632080965</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <f aca="false">$A$10*B54*0.001</f>
-        <v>0.77188</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <f aca="false">$A$11*B54*0.001</f>
-        <v>0.38594</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="n">
+      <c r="C54">
+        <f t="shared" si="5"/>
+        <v>771.88000000000011</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="6"/>
+        <v>0.16485546124297648</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="7"/>
+        <v>0.17835963208096492</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="8"/>
+        <v>0.77188000000000012</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="9"/>
+        <v>0.38594000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>47</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <f aca="false">B55*$A$10</f>
-        <v>788.66</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <f aca="false">F55*EXP(-2*F55)</f>
-        <v>0.162880255621949</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <f aca="false">G55*EXP(-2*G55)</f>
-        <v>0.179204591458203</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <f aca="false">$A$10*B55*0.001</f>
-        <v>0.78866</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <f aca="false">$A$11*B55*0.001</f>
-        <v>0.39433</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="n">
+      <c r="C55">
+        <f t="shared" si="5"/>
+        <v>788.66000000000008</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="6"/>
+        <v>0.16288025562194874</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="7"/>
+        <v>0.17920459145820325</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="8"/>
+        <v>0.78866000000000014</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="9"/>
+        <v>0.39433000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>48</v>
       </c>
-      <c r="C56" s="0" t="n">
-        <f aca="false">B56*$A$10</f>
+      <c r="C56">
+        <f t="shared" si="5"/>
         <v>805.44</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <f aca="false">F56*EXP(-2*F56)</f>
-        <v>0.160855864418332</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <f aca="false">G56*EXP(-2*G56)</f>
-        <v>0.179972044660484</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <f aca="false">$A$10*B56*0.001</f>
-        <v>0.80544</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <f aca="false">$A$11*B56*0.001</f>
-        <v>0.40272</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="n">
+      <c r="D56">
+        <f t="shared" si="6"/>
+        <v>0.16085586441833175</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="7"/>
+        <v>0.17997204466048411</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="8"/>
+        <v>0.80544000000000004</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="9"/>
+        <v>0.40272000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>49</v>
       </c>
-      <c r="C57" s="0" t="n">
-        <f aca="false">B57*$A$10</f>
+      <c r="C57">
+        <f t="shared" si="5"/>
         <v>822.22</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <f aca="false">F57*EXP(-2*F57)</f>
-        <v>0.158787685590956</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <f aca="false">G57*EXP(-2*G57)</f>
-        <v>0.180664337132841</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <f aca="false">$A$10*B57*0.001</f>
-        <v>0.82222</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <f aca="false">$A$11*B57*0.001</f>
-        <v>0.41111</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="n">
+      <c r="D57">
+        <f t="shared" si="6"/>
+        <v>0.15878768559095555</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="7"/>
+        <v>0.18066433713284111</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="8"/>
+        <v>0.82222000000000006</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="9"/>
+        <v>0.41111000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>50</v>
       </c>
-      <c r="C58" s="0" t="n">
-        <f aca="false">B58*$A$10</f>
+      <c r="C58">
+        <f t="shared" si="5"/>
         <v>839</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <f aca="false">F58*EXP(-2*F58)</f>
-        <v>0.156680814372986</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <f aca="false">G58*EXP(-2*G58)</f>
-        <v>0.181283757724551</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <f aca="false">$A$10*B58*0.001</f>
-        <v>0.839</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <f aca="false">$A$11*B58*0.001</f>
-        <v>0.4195</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="n">
+      <c r="D58">
+        <f t="shared" si="6"/>
+        <v>0.15668081437298553</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="7"/>
+        <v>0.18128375772455105</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="8"/>
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="9"/>
+        <v>0.41949999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>51</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <f aca="false">B59*$A$10</f>
-        <v>855.78</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <f aca="false">F59*EXP(-2*F59)</f>
-        <v>0.154540057374214</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <f aca="false">G59*EXP(-2*G59)</f>
-        <v>0.181832539923211</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <f aca="false">$A$10*B59*0.001</f>
-        <v>0.85578</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <f aca="false">$A$11*B59*0.001</f>
-        <v>0.42789</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="n">
+      <c r="C59">
+        <f t="shared" si="5"/>
+        <v>855.78000000000009</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="6"/>
+        <v>0.15454005737421395</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="7"/>
+        <v>0.18183253992321122</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="8"/>
+        <v>0.8557800000000001</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="9"/>
+        <v>0.42789000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60">
         <v>52</v>
       </c>
-      <c r="C60" s="0" t="n">
-        <f aca="false">B60*$A$10</f>
-        <v>872.56</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <f aca="false">F60*EXP(-2*F60)</f>
-        <v>0.152369946082243</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <f aca="false">G60*EXP(-2*G60)</f>
-        <v>0.182312863063418</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <f aca="false">$A$10*B60*0.001</f>
-        <v>0.87256</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <f aca="false">$A$11*B60*0.001</f>
-        <v>0.43628</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="n">
+      <c r="C60">
+        <f t="shared" si="5"/>
+        <v>872.56000000000006</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="6"/>
+        <v>0.15236994608224311</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="7"/>
+        <v>0.18231286306341776</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="8"/>
+        <v>0.87256000000000011</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="9"/>
+        <v>0.43628000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>53</v>
       </c>
-      <c r="C61" s="0" t="n">
-        <f aca="false">B61*$A$10</f>
+      <c r="C61">
+        <f t="shared" si="5"/>
         <v>889.34</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <f aca="false">F61*EXP(-2*F61)</f>
-        <v>0.150174749786877</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <f aca="false">G61*EXP(-2*G61)</f>
-        <v>0.182726853510548</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <f aca="false">$A$10*B61*0.001</f>
-        <v>0.88934</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <f aca="false">$A$11*B61*0.001</f>
-        <v>0.44467</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="n">
+      <c r="D61">
+        <f t="shared" si="6"/>
+        <v>0.15017474978687659</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="7"/>
+        <v>0.18272685351054782</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="8"/>
+        <v>0.88934000000000002</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="9"/>
+        <v>0.44467000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
         <v>54</v>
       </c>
-      <c r="C62" s="0" t="n">
-        <f aca="false">B62*$A$10</f>
-        <v>906.12</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <f aca="false">F62*EXP(-2*F62)</f>
-        <v>0.147958487951085</v>
-      </c>
-      <c r="E62" s="0" t="n">
-        <f aca="false">G62*EXP(-2*G62)</f>
-        <v>0.18307658582014</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <f aca="false">$A$10*B62*0.001</f>
-        <v>0.90612</v>
-      </c>
-      <c r="G62" s="0" t="n">
-        <f aca="false">$A$11*B62*0.001</f>
-        <v>0.45306</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="n">
+      <c r="C62">
+        <f t="shared" si="5"/>
+        <v>906.12000000000012</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="6"/>
+        <v>0.14795848795108454</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="7"/>
+        <v>0.18307658582014028</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="8"/>
+        <v>0.90612000000000015</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="9"/>
+        <v>0.45306000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
         <v>55</v>
       </c>
-      <c r="C63" s="0" t="n">
-        <f aca="false">B63*$A$10</f>
-        <v>922.9</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <f aca="false">F63*EXP(-2*F63)</f>
-        <v>0.145724942050996</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <f aca="false">G63*EXP(-2*G63)</f>
-        <v>0.183364083873359</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <f aca="false">$A$10*B63*0.001</f>
-        <v>0.9229</v>
-      </c>
-      <c r="G63" s="0" t="n">
-        <f aca="false">$A$11*B63*0.001</f>
-        <v>0.46145</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="n">
+      <c r="C63">
+        <f t="shared" si="5"/>
+        <v>922.90000000000009</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="6"/>
+        <v>0.14572494205099598</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="7"/>
+        <v>0.18336408387335851</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="8"/>
+        <v>0.92290000000000016</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="9"/>
+        <v>0.46145000000000008</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>56</v>
       </c>
-      <c r="C64" s="0" t="n">
-        <f aca="false">B64*$A$10</f>
-        <v>939.68</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <f aca="false">F64*EXP(-2*F64)</f>
-        <v>0.14347766690649</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <f aca="false">G64*EXP(-2*G64)</f>
-        <v>0.183591321989011</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <f aca="false">$A$10*B64*0.001</f>
-        <v>0.93968</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <f aca="false">$A$11*B64*0.001</f>
-        <v>0.46984</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="n">
+      <c r="C64">
+        <f t="shared" si="5"/>
+        <v>939.68000000000006</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="6"/>
+        <v>0.14347766690649022</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="7"/>
+        <v>0.18359132198901093</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="8"/>
+        <v>0.93968000000000007</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="9"/>
+        <v>0.46984000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65">
         <v>57</v>
       </c>
-      <c r="C65" s="0" t="n">
-        <f aca="false">B65*$A$10</f>
+      <c r="C65">
+        <f t="shared" si="5"/>
         <v>956.46</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <f aca="false">F65*EXP(-2*F65)</f>
-        <v>0.141220001523116</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <f aca="false">G65*EXP(-2*G65)</f>
-        <v>0.183760226012594</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <f aca="false">$A$10*B65*0.001</f>
-        <v>0.95646</v>
-      </c>
-      <c r="G65" s="0" t="n">
-        <f aca="false">$A$11*B65*0.001</f>
-        <v>0.47823</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="n">
+      <c r="D65">
+        <f t="shared" si="6"/>
+        <v>0.14122000152311553</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="7"/>
+        <v>0.1837602260125944</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="8"/>
+        <v>0.95646000000000009</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="9"/>
+        <v>0.47823000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>58</v>
       </c>
-      <c r="C66" s="0" t="n">
-        <f aca="false">B66*$A$10</f>
+      <c r="C66">
+        <f t="shared" si="5"/>
         <v>973.24</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <f aca="false">F66*EXP(-2*F66)</f>
-        <v>0.138955079465249</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <f aca="false">G66*EXP(-2*G66)</f>
-        <v>0.183872674382818</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <f aca="false">$A$10*B66*0.001</f>
-        <v>0.97324</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <f aca="false">$A$11*B66*0.001</f>
+      <c r="D66">
+        <f t="shared" si="6"/>
+        <v>0.1389550794652489</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="7"/>
+        <v>0.18387267438281771</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="8"/>
+        <v>0.97323999999999999</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="9"/>
         <v>0.48662</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="n">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>59</v>
       </c>
-      <c r="C67" s="0" t="n">
-        <f aca="false">B67*$A$10</f>
-        <v>990.02</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <f aca="false">F67*EXP(-2*F67)</f>
-        <v>0.136685838779629</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <f aca="false">G67*EXP(-2*G67)</f>
-        <v>0.183930499176053</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <f aca="false">$A$10*B67*0.001</f>
-        <v>0.99002</v>
-      </c>
-      <c r="G67" s="0" t="n">
-        <f aca="false">$A$11*B67*0.001</f>
-        <v>0.49501</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="n">
+      <c r="C67">
+        <f t="shared" si="5"/>
+        <v>990.0200000000001</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="6"/>
+        <v>0.13668583877962878</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="7"/>
+        <v>0.18393049917605298</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="8"/>
+        <v>0.99002000000000012</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="9"/>
+        <v>0.49501000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>60</v>
       </c>
-      <c r="C68" s="0" t="n">
-        <f aca="false">B68*$A$10</f>
-        <v>1006.8</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <f aca="false">F68*EXP(-2*F68)</f>
-        <v>0.134415031487641</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <f aca="false">G68*EXP(-2*G68)</f>
-        <v>0.183935487129154</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <f aca="false">$A$10*B68*0.001</f>
-        <v>1.0068</v>
-      </c>
-      <c r="G68" s="0" t="n">
-        <f aca="false">$A$11*B68*0.001</f>
-        <v>0.5034</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="n">
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>1006.8000000000001</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>0.13441503148764061</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="7"/>
+        <v>0.18393548712915392</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>1.0068000000000001</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="9"/>
+        <v>0.50340000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>61</v>
       </c>
-      <c r="C69" s="0" t="n">
-        <f aca="false">B69*$A$10</f>
+      <c r="C69">
+        <f t="shared" si="5"/>
         <v>1023.58</v>
       </c>
-      <c r="D69" s="0" t="n">
-        <f aca="false">F69*EXP(-2*F69)</f>
-        <v>0.132145232664011</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <f aca="false">G69*EXP(-2*G69)</f>
-        <v>0.183889380641072</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <f aca="false">$A$10*B69*0.001</f>
-        <v>1.02358</v>
-      </c>
-      <c r="G69" s="0" t="n">
-        <f aca="false">$A$11*B69*0.001</f>
-        <v>0.51179</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="n">
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>0.13214523266401129</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="7"/>
+        <v>0.1838893806410723</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>1.0235800000000002</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="9"/>
+        <v>0.51179000000000008</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>62</v>
       </c>
-      <c r="C70" s="0" t="n">
-        <f aca="false">B70*$A$10</f>
-        <v>1040.36</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <f aca="false">F70*EXP(-2*F70)</f>
-        <v>0.129878849118873</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <f aca="false">G70*EXP(-2*G70)</f>
-        <v>0.183793878753694</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <f aca="false">$A$10*B70*0.001</f>
-        <v>1.04036</v>
-      </c>
-      <c r="G70" s="0" t="n">
-        <f aca="false">$A$11*B70*0.001</f>
-        <v>0.52018</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="n">
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>1040.3600000000001</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>0.12987884911887296</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="7"/>
+        <v>0.1837938787536943</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>1.0403600000000002</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="9"/>
+        <v>0.52018000000000009</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71">
         <v>63</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <f aca="false">B71*$A$10</f>
-        <v>1057.14</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <f aca="false">F71*EXP(-2*F71)</f>
-        <v>0.127618127699488</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <f aca="false">G71*EXP(-2*G71)</f>
-        <v>0.183650638112312</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <f aca="false">$A$10*B71*0.001</f>
-        <v>1.05714</v>
-      </c>
-      <c r="G71" s="0" t="n">
-        <f aca="false">$A$11*B71*0.001</f>
-        <v>0.52857</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="n">
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>1057.1400000000001</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>0.1276181276994881</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="7"/>
+        <v>0.18365063811231155</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>1.0571400000000002</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="9"/>
+        <v>0.5285700000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>64</v>
       </c>
-      <c r="C72" s="0" t="n">
-        <f aca="false">B72*$A$10</f>
+      <c r="C72">
+        <f t="shared" si="5"/>
         <v>1073.92</v>
       </c>
-      <c r="D72" s="0" t="n">
-        <f aca="false">F72*EXP(-2*F72)</f>
-        <v>0.125365163227284</v>
-      </c>
-      <c r="E72" s="0" t="n">
-        <f aca="false">G72*EXP(-2*G72)</f>
-        <v>0.183461273906133</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <f aca="false">$A$10*B72*0.001</f>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>0.12536516322728369</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>0.1834612739061329</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
         <v>1.07392</v>
       </c>
-      <c r="G72" s="0" t="n">
-        <f aca="false">$A$11*B72*0.001</f>
-        <v>0.53696</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="n">
+      <c r="G72">
+        <f t="shared" si="9"/>
+        <v>0.53695999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73">
         <v>65</v>
       </c>
-      <c r="C73" s="0" t="n">
-        <f aca="false">B73*$A$10</f>
+      <c r="C73">
+        <f t="shared" ref="C73:C104" si="10">B73*$A$10</f>
         <v>1090.7</v>
       </c>
-      <c r="D73" s="0" t="n">
-        <f aca="false">F73*EXP(-2*F73)</f>
-        <v>0.123121906085224</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <f aca="false">G73*EXP(-2*G73)</f>
-        <v>0.183227360789235</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <f aca="false">$A$10*B73*0.001</f>
+      <c r="D73">
+        <f t="shared" ref="D73:D81" si="11">F73*EXP(-2*F73)</f>
+        <v>0.12312190608522393</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73:E81" si="12">G73*EXP(-2*G73)</f>
+        <v>0.18322736078923485</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73:F81" si="13">$A$10*B73*0.001</f>
         <v>1.0907</v>
       </c>
-      <c r="G73" s="0" t="n">
-        <f aca="false">$A$11*B73*0.001</f>
+      <c r="G73">
+        <f t="shared" ref="G73:G81" si="14">$A$11*B73*0.001</f>
         <v>0.54535</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="n">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74">
         <v>66</v>
       </c>
-      <c r="C74" s="0" t="n">
-        <f aca="false">B74*$A$10</f>
+      <c r="C74">
+        <f t="shared" si="10"/>
         <v>1107.48</v>
       </c>
-      <c r="D74" s="0" t="n">
-        <f aca="false">F74*EXP(-2*F74)</f>
-        <v>0.120890169469957</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <f aca="false">G74*EXP(-2*G74)</f>
-        <v>0.182950433782342</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <f aca="false">$A$10*B74*0.001</f>
+      <c r="D74">
+        <f t="shared" si="11"/>
+        <v>0.12089016946995691</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="12"/>
+        <v>0.18295043378234163</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="13"/>
         <v>1.10748</v>
       </c>
-      <c r="G74" s="0" t="n">
-        <f aca="false">$A$11*B74*0.001</f>
-        <v>0.55374</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="n">
+      <c r="G74">
+        <f t="shared" si="14"/>
+        <v>0.55374000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75">
         <v>67</v>
       </c>
-      <c r="C75" s="0" t="n">
-        <f aca="false">B75*$A$10</f>
+      <c r="C75">
+        <f t="shared" si="10"/>
         <v>1124.26</v>
       </c>
-      <c r="D75" s="0" t="n">
-        <f aca="false">F75*EXP(-2*F75)</f>
-        <v>0.118671636322597</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <f aca="false">G75*EXP(-2*G75)</f>
-        <v>0.182631989155818</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <f aca="false">$A$10*B75*0.001</f>
+      <c r="D75">
+        <f t="shared" si="11"/>
+        <v>0.11867163632259735</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="12"/>
+        <v>0.18263198915581802</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="13"/>
         <v>1.12426</v>
       </c>
-      <c r="G75" s="0" t="n">
-        <f aca="false">$A$11*B75*0.001</f>
-        <v>0.56213</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="n">
+      <c r="G75">
+        <f t="shared" si="14"/>
+        <v>0.56213000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>68</v>
       </c>
-      <c r="C76" s="0" t="n">
-        <f aca="false">B76*$A$10</f>
+      <c r="C76">
+        <f t="shared" si="10"/>
         <v>1141.04</v>
       </c>
-      <c r="D76" s="0" t="n">
-        <f aca="false">F76*EXP(-2*F76)</f>
-        <v>0.116467865951459</v>
-      </c>
-      <c r="E76" s="0" t="n">
-        <f aca="false">G76*EXP(-2*G76)</f>
-        <v>0.18227348529425</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <f aca="false">$A$10*B76*0.001</f>
-        <v>1.14104</v>
-      </c>
-      <c r="G76" s="0" t="n">
-        <f aca="false">$A$11*B76*0.001</f>
-        <v>0.57052</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="n">
+      <c r="D76">
+        <f t="shared" si="11"/>
+        <v>0.11646786595145865</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="12"/>
+        <v>0.18227348529424978</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="13"/>
+        <v>1.1410400000000001</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="14"/>
+        <v>0.57052000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77">
         <v>69</v>
       </c>
-      <c r="C77" s="0" t="n">
-        <f aca="false">B77*$A$10</f>
-        <v>1157.82</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <f aca="false">F77*EXP(-2*F77)</f>
-        <v>0.114280300359518</v>
-      </c>
-      <c r="E77" s="0" t="n">
-        <f aca="false">G77*EXP(-2*G77)</f>
-        <v>0.181876343542981</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <f aca="false">$A$10*B77*0.001</f>
-        <v>1.15782</v>
-      </c>
-      <c r="G77" s="0" t="n">
-        <f aca="false">$A$11*B77*0.001</f>
-        <v>0.57891</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="n">
+      <c r="C77">
+        <f t="shared" si="10"/>
+        <v>1157.8200000000002</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="11"/>
+        <v>0.1142803003595185</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="12"/>
+        <v>0.18187634354298096</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="13"/>
+        <v>1.1578200000000003</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="14"/>
+        <v>0.57891000000000015</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78">
         <v>70</v>
       </c>
-      <c r="C78" s="0" t="n">
-        <f aca="false">B78*$A$10</f>
-        <v>1174.6</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <f aca="false">F78*EXP(-2*F78)</f>
-        <v>0.112110270288894</v>
-      </c>
-      <c r="E78" s="0" t="n">
-        <f aca="false">G78*EXP(-2*G78)</f>
-        <v>0.181441949036968</v>
-      </c>
-      <c r="F78" s="0" t="n">
-        <f aca="false">$A$10*B78*0.001</f>
-        <v>1.1746</v>
-      </c>
-      <c r="G78" s="0" t="n">
-        <f aca="false">$A$11*B78*0.001</f>
-        <v>0.5873</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="n">
+      <c r="C78">
+        <f t="shared" si="10"/>
+        <v>1174.6000000000001</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="11"/>
+        <v>0.11211027028889403</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="12"/>
+        <v>0.18144194903696811</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="13"/>
+        <v>1.1746000000000001</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="14"/>
+        <v>0.58730000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79">
         <v>71</v>
       </c>
-      <c r="C79" s="0" t="n">
-        <f aca="false">B79*$A$10</f>
-        <v>1191.38</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <f aca="false">F79*EXP(-2*F79)</f>
-        <v>0.109959000994113</v>
-      </c>
-      <c r="E79" s="0" t="n">
-        <f aca="false">G79*EXP(-2*G79)</f>
-        <v>0.180971651512306</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <f aca="false">$A$10*B79*0.001</f>
-        <v>1.19138</v>
-      </c>
-      <c r="G79" s="0" t="n">
-        <f aca="false">$A$11*B79*0.001</f>
-        <v>0.59569</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="n">
+      <c r="C79">
+        <f t="shared" si="10"/>
+        <v>1191.3800000000001</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="11"/>
+        <v>0.10995900099411311</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="12"/>
+        <v>0.18097165151230626</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="13"/>
+        <v>1.1913800000000001</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="14"/>
+        <v>0.59569000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80">
         <v>72</v>
       </c>
-      <c r="C80" s="0" t="n">
-        <f aca="false">B80*$A$10</f>
-        <v>1208.16</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <f aca="false">F80*EXP(-2*F80)</f>
-        <v>0.1078276177555</v>
-      </c>
-      <c r="E80" s="0" t="n">
-        <f aca="false">G80*EXP(-2*G80)</f>
-        <v>0.180466766100774</v>
-      </c>
-      <c r="F80" s="0" t="n">
-        <f aca="false">$A$10*B80*0.001</f>
-        <v>1.20816</v>
-      </c>
-      <c r="G80" s="0" t="n">
-        <f aca="false">$A$11*B80*0.001</f>
-        <v>0.60408</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="n">
+      <c r="C80">
+        <f t="shared" si="10"/>
+        <v>1208.1600000000001</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="11"/>
+        <v>0.10782761775550047</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="12"/>
+        <v>0.18046676610077372</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="13"/>
+        <v>1.2081600000000001</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="14"/>
+        <v>0.60408000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81">
         <v>73</v>
       </c>
-      <c r="C81" s="0" t="n">
-        <f aca="false">B81*$A$10</f>
+      <c r="C81">
+        <f t="shared" si="10"/>
         <v>1224.94</v>
       </c>
-      <c r="D81" s="0" t="n">
-        <f aca="false">F81*EXP(-2*F81)</f>
-        <v>0.105717151143543</v>
-      </c>
-      <c r="E81" s="0" t="n">
-        <f aca="false">G81*EXP(-2*G81)</f>
-        <v>0.179928574107736</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <f aca="false">$A$10*B81*0.001</f>
-        <v>1.22494</v>
-      </c>
-      <c r="G81" s="0" t="n">
-        <f aca="false">$A$11*B81*0.001</f>
-        <v>0.61247</v>
+      <c r="D81">
+        <f t="shared" si="11"/>
+        <v>0.10571715114354308</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="12"/>
+        <v>0.17992857410773566</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="13"/>
+        <v>1.2249400000000001</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="14"/>
+        <v>0.61247000000000007</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C11" sqref="A8:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col min="1" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>12.5</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>60.8867821254667</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>4.74001007973246</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="B2">
+        <v>60.886782125466702</v>
+      </c>
+      <c r="C2">
+        <v>4.7400100797324596</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>60.9940837464827</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>4.73011027925252</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1.66935981971455</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="F2">
+        <v>60.994083746482701</v>
+      </c>
+      <c r="G2">
+        <v>4.7301102792525196</v>
+      </c>
+      <c r="H2">
+        <v>1.6693598197145501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>25</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>61.0116676700257</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>9.46247523020597</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B3">
+        <v>61.011667670025702</v>
+      </c>
+      <c r="C3">
+        <v>9.4624752302059694</v>
+      </c>
+      <c r="D3">
         <v>1.48599537541992</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>62.1739662935803</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>9.55008648870862</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>3.02264539372105</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="G3">
+        <v>9.5500864887086205</v>
+      </c>
+      <c r="H3">
+        <v>3.0226453937210498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>50</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>61.3054921044506</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>18.7239768431834</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2.97302483567868</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>71.0884615979534</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="C4">
+        <v>18.723976843183401</v>
+      </c>
+      <c r="D4">
+        <v>2.9730248356786801</v>
+      </c>
+      <c r="F4">
+        <v>71.088461597953398</v>
+      </c>
+      <c r="G4">
         <v>17.8311667286521</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>5.95078845581672</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="H4">
+        <v>5.9507884558167197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>100</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>71.0606973115642</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>35.3458115265389</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>5.94368006727557</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>92.2524701900237</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="B5">
+        <v>71.060697311564198</v>
+      </c>
+      <c r="C5">
+        <v>35.345811526538903</v>
+      </c>
+      <c r="D5">
+        <v>5.9436800672755696</v>
+      </c>
+      <c r="F5">
+        <v>92.252470190023701</v>
+      </c>
+      <c r="G5">
         <v>31.422363915698</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>11.8812069375148</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="H5">
+        <v>11.881206937514801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>200</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>92.2485544115129</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>62.6617799433166</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="B6">
+        <v>92.248554411512899</v>
+      </c>
+      <c r="C6">
+        <v>62.661779943316603</v>
+      </c>
+      <c r="D6">
         <v>11.8804213298222</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>134.697934648336</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>51.0671563129418</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>23.7797488538967</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="G6">
+        <v>51.067156312941798</v>
+      </c>
+      <c r="H6">
+        <v>23.779748853896699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>61.2439774603977</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8">
+        <v>61.243977460397701</v>
+      </c>
+      <c r="C8">
         <v>9.82629032573948</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>50</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>61.6739229282622</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>24.374916150802</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="B9">
+        <v>61.673922928262201</v>
+      </c>
+      <c r="C9">
+        <v>24.374916150802001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>100</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>71.2006306638566</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>44.5670884580633</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="C10">
+        <v>44.567088458063303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>200</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>92.0481445932539</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>76.3514391815666</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B11">
+        <v>92.048144593253895</v>
+      </c>
+      <c r="C11">
+        <v>76.351439181566604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>12.5</v>
+      </c>
+      <c r="C3">
+        <v>60.886782125466702</v>
+      </c>
+      <c r="D3">
+        <v>4.7400100797324596</v>
+      </c>
+      <c r="E3">
+        <v>60.994083746482701</v>
+      </c>
+      <c r="F3">
+        <v>4.7301102792525196</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>61.011667670025702</v>
+      </c>
+      <c r="D4">
+        <v>9.4624752302059694</v>
+      </c>
+      <c r="E4">
+        <v>62.1739662935803</v>
+      </c>
+      <c r="F4">
+        <v>9.5500864887086205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>61.3054921044506</v>
+      </c>
+      <c r="D5">
+        <v>18.723976843183401</v>
+      </c>
+      <c r="E5">
+        <v>71.088461597953398</v>
+      </c>
+      <c r="F5">
+        <v>17.8311667286521</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>71.060697311564198</v>
+      </c>
+      <c r="D6">
+        <v>35.345811526538903</v>
+      </c>
+      <c r="E6">
+        <v>92.252470190023701</v>
+      </c>
+      <c r="F6">
+        <v>31.422363915698</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>92.248554411512899</v>
+      </c>
+      <c r="D7">
+        <v>62.661779943316603</v>
+      </c>
+      <c r="E7">
+        <v>134.697934648336</v>
+      </c>
+      <c r="F7">
+        <v>51.067156312941798</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>61.243977460397701</v>
+      </c>
+      <c r="D10">
+        <v>9.82629032573948</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>61.673922928262201</v>
+      </c>
+      <c r="D11">
+        <v>24.374916150802001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>71.2006306638566</v>
+      </c>
+      <c r="D12">
+        <v>44.567088458063303</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>92.048144593253895</v>
+      </c>
+      <c r="D13">
+        <v>76.351439181566604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>